--- a/code/src/main/resources/examples/3_simple_dmn/data.xlsx
+++ b/code/src/main/resources/examples/3_simple_dmn/data.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\u2\root\p2\code\src\main\resources\examples\3_simple_dmn\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21879937-C4E7-40EC-8BD2-B12B6B261B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7647CA41-5A0B-458A-AF88-0548385DCA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,5 +440,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>